--- a/Data Files/ExcelData.xlsx
+++ b/Data Files/ExcelData.xlsx
@@ -1,18 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmocha\git\Masoko\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tezza\git\Masoko\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876ACBB7-67C7-4896-8316-4DC0C30AED9F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="RegistrationData" sheetId="1" r:id="rId1"/>
+    <sheet name="DeliveryData" sheetId="2" r:id="rId2"/>
+    <sheet name="LoginValidation" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t xml:space="preserve">Frist Name </t>
   </si>
@@ -57,12 +60,72 @@
   </si>
   <si>
     <t>729208685</t>
+  </si>
+  <si>
+    <t>StreetAddress</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Town</t>
+  </si>
+  <si>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>PhoneNo</t>
+  </si>
+  <si>
+    <t>Thika Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lewy </t>
+  </si>
+  <si>
+    <t>Mouka</t>
+  </si>
+  <si>
+    <t>Thika</t>
+  </si>
+  <si>
+    <t>Kiambu</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>Verification Message</t>
+  </si>
+  <si>
+    <t>https://www.masoko.com/</t>
+  </si>
+  <si>
+    <t>Mochaaa2323</t>
+  </si>
+  <si>
+    <t>This is a required field.</t>
+  </si>
+  <si>
+    <t>Mochaaa23!!@</t>
+  </si>
+  <si>
+    <t>Invalid login or password.</t>
+  </si>
+  <si>
+    <t>Lewis Mocha</t>
+  </si>
+  <si>
+    <t>Please enter a valid email address</t>
+  </si>
+  <si>
+    <t>sfdwgdbsg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -385,11 +448,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,53 +461,217 @@
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1B8D1B-B3B2-431F-96BE-06FFE55306A2}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>729208685</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAEA2891-108D-462C-9E1E-B977B813FB29}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>8</v>
+      <c r="D7" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{0CF40A02-F3FB-4854-9F0F-E1F057B40D82}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{6F297869-9911-4976-9B28-71ED6EC58236}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{005F49B8-D892-465B-9B2F-8591D653A5FE}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{DF3E1557-AE1B-4BC8-8950-38B64613AB60}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Data Files/ExcelData.xlsx
+++ b/Data Files/ExcelData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tezza\git\Masoko\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876ACBB7-67C7-4896-8316-4DC0C30AED9F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D783DD5-270C-4624-A08B-1558A60609CB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,9 +95,6 @@
     <t>url</t>
   </si>
   <si>
-    <t>Verification Message</t>
-  </si>
-  <si>
     <t>https://www.masoko.com/</t>
   </si>
   <si>
@@ -113,13 +110,16 @@
     <t>Invalid login or password.</t>
   </si>
   <si>
-    <t>Lewis Mocha</t>
-  </si>
-  <si>
     <t>Please enter a valid email address</t>
   </si>
   <si>
     <t>sfdwgdbsg</t>
+  </si>
+  <si>
+    <t>VerificationMessage</t>
+  </si>
+  <si>
+    <t>My Account</t>
   </si>
 </sst>
 </file>
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -585,7 +585,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,18 +607,18 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -626,21 +626,21 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -648,10 +648,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -662,7 +662,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
